--- a/Docs/BudgetOverzicht.xlsx
+++ b/Docs/BudgetOverzicht.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Stoplichten_Keuzevak\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008ABEDD-E448-4A15-B820-DE2C5AA38F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Product</t>
   </si>
@@ -40,73 +36,82 @@
     <t>Totaal</t>
   </si>
   <si>
-    <t>rest stukken acryl platen</t>
+    <t xml:space="preserve">rest stukken acryl platen</t>
   </si>
   <si>
     <t>Stadslab</t>
   </si>
   <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
     <t>Fabio</t>
   </si>
   <si>
     <t>Over</t>
   </si>
   <si>
-    <t>Acryl platen op maat</t>
+    <t xml:space="preserve">Acryl platen op maat</t>
   </si>
   <si>
     <t>https://kunststofplatenshop.nl/</t>
   </si>
   <si>
-    <t>2x ESP32</t>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x ESP32</t>
   </si>
   <si>
     <t>https://www.amazon.nl/dp/B0D9BTQRYT</t>
   </si>
   <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x Parasol voet</t>
+  </si>
+  <si>
+    <t>https://jysk.nl/tuin/parasols-etc/parasolvoeten/parasolvoet-lirype-12l-grijs</t>
+  </si>
+  <si>
     <t>Merel</t>
-  </si>
-  <si>
-    <t>https://jysk.nl/tuin/parasols-etc/parasolvoeten/parasolvoet-lirype-12l-grijs</t>
-  </si>
-  <si>
-    <t>2x Parasol voet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_ [$€-413]\ * #,##0.00_ ;_ [$€-413]\ * \-#,##0.00_ ;_ [$€-413]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -119,17 +124,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="8">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -138,64 +142,44 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="none"/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="none"/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="none"/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -210,37 +194,59 @@
       <bottom style="thin">
         <color theme="2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="5" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -259,8 +265,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,28 +740,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="43.77734375"/>
+    <col customWidth="1" min="2" max="2" width="26.44140625"/>
+    <col customWidth="1" min="3" max="3" width="11.44140625"/>
+    <col customWidth="1" min="4" max="4" width="9.21875"/>
+    <col customWidth="1" min="5" max="5" width="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,209 +782,213 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
-        <v>45800</v>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="16">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7">
         <v>8.5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>45831</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14">
-        <v>24.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11">
-        <v>45853</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="E3" s="13">
+        <v>24.510000000000002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13">
+        <v>11.890000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15">
+        <v>45967</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13">
         <v>15</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{CA870FF1-257A-4725-BBF2-6F38DD563A6A}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{731B5739-6E8C-43C0-8AA8-768C15EFEA81}"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink r:id="rId3" ref="B5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/BudgetOverzicht.xlsx
+++ b/Docs/BudgetOverzicht.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Product</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Prijs</t>
   </si>
   <si>
-    <t>Totaal</t>
-  </si>
-  <si>
     <t xml:space="preserve">rest stukken acryl platen</t>
   </si>
   <si>
@@ -48,7 +45,7 @@
     <t>Fabio</t>
   </si>
   <si>
-    <t>Over</t>
+    <t xml:space="preserve">€1 per 100 gram</t>
   </si>
   <si>
     <t xml:space="preserve">Acryl platen op maat</t>
@@ -127,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -161,11 +158,22 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0"/>
       </left>
       <right style="none"/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="6" tint="0"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -198,12 +206,27 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0"/>
       </left>
       <right style="none"/>
-      <top style="none"/>
+      <top style="thin">
+        <color theme="2" tint="0"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="6" tint="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -221,30 +244,27 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="164" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="4" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="6" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="165" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,6 +777,7 @@
     <col customWidth="1" min="3" max="3" width="11.44140625"/>
     <col customWidth="1" min="4" max="4" width="9.21875"/>
     <col customWidth="1" min="5" max="5" width="12"/>
+    <col customWidth="1" min="6" max="6" width="13.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -775,46 +796,43 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4">
-        <v>200</v>
-      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="7">
         <v>8.5</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="13">
         <v>24.510000000000002</v>
@@ -822,33 +840,33 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="13">
-        <v>11.890000000000001</v>
+        <v>14.880000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="12">
+        <v>45967</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="15">
-        <v>45967</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="13">
         <v>15</v>
@@ -857,126 +875,126 @@
     <row r="6">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="16"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="10"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="16"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="10"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="10"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="10"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="10"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="16"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="10"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="10"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="10"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="10"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="10"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="10"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="10"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="10"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="10"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="10"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="10"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="10"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="10"/>
       <c r="E23" s="13"/>
     </row>
